--- a/dataset/task_sheet_answers_v2/IncomeStatement/4_IncomeStatement/4_IncomeStatement_gt1.xlsx
+++ b/dataset/task_sheet_answers_v2/IncomeStatement/4_IncomeStatement/4_IncomeStatement_gt1.xlsx
@@ -1,47 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers_v2\IncomeStatement\4_IncomeStatement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F92DF7-3300-455B-9E89-18E87D311E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="11292" windowHeight="12360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Net Sales</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Profit</t>
+  </si>
+  <si>
+    <t>Tax Expense</t>
+  </si>
+  <si>
+    <t>Net Profit</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>求和项:Operating Expenses</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="176" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,114 +101,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="1" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" refreshedBy="hongxin li" refreshedDate="45054.87109143518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" r:id="rId1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="hongxin li" refreshedDate="45054.871091435183" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{00000000-000A-0000-FFFF-FFFF14000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H9" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="8">
-    <cacheField name="Year" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="8" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="2015" maxValue="2022">
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2015" maxValue="2022" count="8">
         <n v="2015"/>
         <n v="2016"/>
         <n v="2017"/>
@@ -175,17 +157,17 @@
         <n v="2022"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Net Sales" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="74000" maxValue="125242"/>
+    <cacheField name="Net Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="74000" maxValue="125242"/>
     </cacheField>
-    <cacheField name="COGS" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="29855" maxValue="79287"/>
+    <cacheField name="COGS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="29855" maxValue="79287"/>
     </cacheField>
-    <cacheField name="Gross Profit" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsBlank="1" containsNonDate="0" containsString="0"/>
+    <cacheField name="Gross Profit" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Operating Expenses" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="8" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="37322" maxValue="46076">
+    <cacheField name="Operating Expenses" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="37322" maxValue="46076" count="8">
         <n v="37322"/>
         <n v="44450"/>
         <n v="40498"/>
@@ -196,16 +178,21 @@
         <n v="38307"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Operating Profit" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsBlank="1" containsNonDate="0" containsString="0"/>
+    <cacheField name="Operating Profit" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Tax Expense" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="20.4" maxValue="1529.6"/>
+    <cacheField name="Tax Expense" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="20.399999999999999" maxValue="1529.6"/>
     </cacheField>
-    <cacheField name="Net Profit" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsBlank="1" containsNonDate="0" containsString="0"/>
+    <cacheField name="Net Profit" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -295,81 +282,86 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="20" dataOnRows="0" dataCaption="Values" showError="0" showMissing="1" updatedVersion="8" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="8" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+    <pivotField axis="axisRow" showAll="0">
       <items count="9">
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="3"/>
-        <item t="data" sd="1" x="4"/>
-        <item t="data" sd="1" x="5"/>
-        <item t="data" sd="1" x="6"/>
-        <item t="data" sd="1" x="7"/>
-        <item t="default" sd="1"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showDropDowns="1" compact="1" numFmtId="176" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" numFmtId="176" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField dataField="1" showDropDowns="1" compact="1" numFmtId="176" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
       <items count="9">
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="7"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="5"/>
-        <item t="data" sd="1" x="3"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="4"/>
-        <item t="data" sd="1" x="6"/>
-        <item t="default" sd="1"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" numFmtId="176" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
   <rowItems count="9">
-    <i t="data" r="0" i="0">
-      <x v="0"/>
+    <i>
+      <x/>
     </i>
-    <i t="data" r="0" i="0">
+    <i>
       <x v="1"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i>
       <x v="2"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i>
       <x v="3"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i>
       <x v="4"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i>
       <x v="5"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i>
       <x v="6"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i>
       <x v="7"/>
     </i>
-    <i t="grand" r="0" i="0">
-      <x v="0"/>
+    <i t="grand">
+      <x/>
     </i>
   </rowItems>
   <colItems count="1">
-    <i t="data" r="0" i="0"/>
+    <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Operating Expenses" fld="4" subtotal="average" showDataAs="normal" baseField="0" baseItem="0"/>
+    <dataField name="求和项:Operating Expenses" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
@@ -669,340 +661,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="14.33203125" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="32.5546875" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col min="1" max="1" width="9.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Row Labels</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Average of Operating Expenses</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>2015</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="5">
         <v>37322</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2016</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="5">
         <v>44450</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>2017</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="5">
         <v>40498</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>2018</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="5">
         <v>43552</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>2019</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="5">
         <v>45691</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>2020</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="5">
         <v>42820</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="5">
         <v>46076</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>2022</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="5">
         <v>38307</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>42339.5</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>338716</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="13.33203125" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="12.21875" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.77734375" customWidth="1" style="5" min="4" max="4"/>
-    <col width="19.109375" customWidth="1" style="5" min="5" max="5"/>
-    <col width="15.21875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="11.21875" customWidth="1" style="5" min="7" max="7"/>
-    <col width="13.5546875" customWidth="1" style="5" min="8" max="8"/>
+    <col min="2" max="2" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Net Sales</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Gross Profit</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Operating Expenses</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Operating Profit</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Tax Expense</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>Net Profit</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2015</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="1">
         <v>74000</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="1">
         <v>29855</v>
       </c>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>37322</v>
       </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="6" t="n">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
         <v>1364.6</v>
       </c>
-      <c r="H2" s="6" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2016</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="1">
         <v>93948</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="1">
         <v>49396</v>
       </c>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
         <v>44450</v>
       </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="6" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="H3" s="6" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2017</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="1">
         <v>86223</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="1">
         <v>43511</v>
       </c>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>40498</v>
       </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="6" t="n">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <v>442.8</v>
       </c>
-      <c r="H4" s="6" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2018</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="1">
         <v>106125</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="1">
         <v>61981</v>
       </c>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>43552</v>
       </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="6" t="n">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>118.4</v>
       </c>
-      <c r="H5" s="6" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2019</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="1">
         <v>107581</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="1">
         <v>59573</v>
       </c>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>45691</v>
       </c>
-      <c r="F6" s="6" t="n"/>
-      <c r="G6" s="6" t="n">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>463.4</v>
       </c>
-      <c r="H6" s="6" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2020</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="1">
         <v>106239</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="1">
         <v>59987</v>
       </c>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>42820</v>
       </c>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="6" t="n">
-        <v>686.4000000000001</v>
-      </c>
-      <c r="H7" s="6" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>686.40000000000009</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2021</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="1">
         <v>114379</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="1">
         <v>68154</v>
       </c>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>46076</v>
       </c>
-      <c r="F8" s="6" t="n"/>
-      <c r="G8" s="6" t="n">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>29.8</v>
       </c>
-      <c r="H8" s="6" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2022</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="1">
         <v>125242</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="1">
         <v>79287</v>
       </c>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>38307</v>
       </c>
-      <c r="F9" s="6" t="n"/>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>1529.6</v>
       </c>
-      <c r="H9" s="6" t="n"/>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>